--- a/数据整理/stocks/其他/PYPL-Paypal控股股份有限公司.xlsx
+++ b/数据整理/stocks/其他/PYPL-Paypal控股股份有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1999,4 +2000,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0758</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0758</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0758</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4626</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161128</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003721</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）美元</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PYPL-Paypal控股股份有限公司.xlsx
+++ b/数据整理/stocks/其他/PYPL-Paypal控股股份有限公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2778,4 +2779,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PYPL-Paypal控股股份有限公司.xlsx
+++ b/数据整理/stocks/其他/PYPL-Paypal控股股份有限公司.xlsx
@@ -2803,12 +2803,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/PYPL-Paypal控股股份有限公司.xlsx
+++ b/数据整理/stocks/其他/PYPL-Paypal控股股份有限公司.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2787,7 +2788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2798,17 +2799,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2818,14 +2839,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8</v>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2834,14 +2877,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>7.79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2850,13 +2983,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>18</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>6.17</v>
       </c>
     </row>
